--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints0.800000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints0.800000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>3.003377526664765e-25</v>
+        <v>3.01638221533579e-25</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>2.984285195902781e-25</v>
+        <v>2.998669508986596e-25</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>2.961779863654518e-25</v>
+        <v>2.976691181299658e-25</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>2.936158587234232e-25</v>
+        <v>2.950837149313616e-25</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>2.907718423956093e-25</v>
+        <v>2.921497330067025e-25</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>2.876756431134299e-25</v>
+        <v>2.889061640598465e-25</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>2.843569666083002e-25</v>
+        <v>2.85391999794647e-25</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>2.808455186116491e-25</v>
+        <v>2.816462319149716e-25</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>2.771710048548917e-25</v>
+        <v>2.777078521246734e-25</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>2.73363131069443e-25</v>
+        <v>2.736158521276056e-25</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>2.694516029867328e-25</v>
+        <v>2.69409223627637e-25</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.654661263381759e-25</v>
+        <v>2.651269583286202e-25</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>2.614364068551868e-25</v>
+        <v>2.608080479344078e-25</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>2.573921502691959e-25</v>
+        <v>2.564914841488694e-25</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>2.533630623116177e-25</v>
+        <v>2.522162586758571e-25</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>2.493788487138721e-25</v>
+        <v>2.480213632192294e-25</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>2.454692152073736e-25</v>
+        <v>2.439457894828389e-25</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>2.416638675235526e-25</v>
+        <v>2.400285291705546e-25</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>2.379917963804487e-25</v>
+        <v>2.363074091721674e-25</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>2.34467613763492e-25</v>
+        <v>2.327968322702747e-25</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>2.310926151470308e-25</v>
+        <v>2.294895075842282e-25</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>2.278675938286537e-25</v>
+        <v>2.263773261472209e-25</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>2.247933431059539e-25</v>
+        <v>2.234521789924504e-25</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>2.21870656276521e-25</v>
+        <v>2.207059571531111e-25</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>2.191003266379556e-25</v>
+        <v>2.181305516624077e-25</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>2.164831474878473e-25</v>
+        <v>2.157178535535344e-25</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>2.140199121237861e-25</v>
+        <v>2.134597538596859e-25</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>2.117114138433716e-25</v>
+        <v>2.113481436140659e-25</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>2.095584459441936e-25</v>
+        <v>2.093749138498689e-25</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>2.075618017238457e-25</v>
+        <v>2.075319556002929e-25</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>2.057222744799185e-25</v>
+        <v>2.058111598985332e-25</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>2.040406575100101e-25</v>
+        <v>2.04204417777792e-25</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>2.025177441117112e-25</v>
+        <v>2.027036202712647e-25</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>2.011543275826135e-25</v>
+        <v>2.013006584121473e-25</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.999478131727672e-25</v>
+        <v>1.999860049036398e-25</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.988729308127882e-25</v>
+        <v>1.987406399358024e-25</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.978951039947438e-25</v>
+        <v>1.975416477672426e-25</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.969797278360086e-25</v>
+        <v>1.963661007781436e-25</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.960921974539535e-25</v>
+        <v>1.951910713486837e-25</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.951979079659508e-25</v>
+        <v>1.93993631859043e-25</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.942622544893713e-25</v>
+        <v>1.927508546893997e-25</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.932506321415899e-25</v>
+        <v>1.914398122199371e-25</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.921284360399773e-25</v>
+        <v>1.900375768308336e-25</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.908610613019042e-25</v>
+        <v>1.885212209022671e-25</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.89413903044746e-25</v>
+        <v>1.868678168144216e-25</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.877523563858734e-25</v>
+        <v>1.85054436947475e-25</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.858418164426586e-25</v>
+        <v>1.830581536816075e-25</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.836476783324707e-25</v>
+        <v>1.80856039396996e-25</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.811353371726878e-25</v>
+        <v>1.784251664738262e-25</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.78273340188031e-25</v>
+        <v>1.757445346042706e-25</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.750707580390518e-25</v>
+        <v>1.728179209690962e-25</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.715647743275288e-25</v>
+        <v>1.696662920141591e-25</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.677931381626543e-25</v>
+        <v>1.663109599569176e-25</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.637935986536186e-25</v>
+        <v>1.627732370148284e-25</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.596039049096284e-25</v>
+        <v>1.590744354053627e-25</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.552618060398745e-25</v>
+        <v>1.552358673459778e-25</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.508050511535528e-25</v>
+        <v>1.512788450541354e-25</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.462713893598533e-25</v>
+        <v>1.472246807472917e-25</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.416985697679839e-25</v>
+        <v>1.430946866429193e-25</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.371243414871348e-25</v>
+        <v>1.389101749584748e-25</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.325864536264958e-25</v>
+        <v>1.346924579114141e-25</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.281219298229564e-25</v>
+        <v>1.304625742106674e-25</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.237499517967509e-25</v>
+        <v>1.262348360278341e-25</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.194711924391332e-25</v>
+        <v>1.220165775662131e-25</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.152854657302518e-25</v>
+        <v>1.178148092131267e-25</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.111925856502714e-25</v>
+        <v>1.136365413559135e-25</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.071923661793402e-25</v>
+        <v>1.094887843818955e-25</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.032846212976069e-25</v>
+        <v>1.053785486783953e-25</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>9.946916498523553e-26</v>
+        <v>1.01312844632751e-25</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>9.574581122237476e-26</v>
+        <v>9.729868263228513e-26</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>9.211437398917358e-26</v>
+        <v>9.334307306432005e-26</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>8.857466726579536e-26</v>
+        <v>8.945302631619384e-26</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>8.512650503238902e-26</v>
+        <v>8.563555277522896e-26</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>8.176970126910834e-26</v>
+        <v>8.189766282875306e-26</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>7.850406995610283e-26</v>
+        <v>7.8246366864089e-26</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>7.53294250735349e-26</v>
+        <v>7.468867526857411e-26</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>7.224558060155395e-26</v>
+        <v>7.123159842953115e-26</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>6.925235052030992e-26</v>
+        <v>6.788214673428352e-26</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>6.634954880996442e-26</v>
+        <v>6.464733057016762e-26</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>6.353698945066721e-26</v>
+        <v>6.153416032450665e-26</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>6.081448642257211e-26</v>
+        <v>5.854964638462829e-26</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>5.818185370582949e-26</v>
+        <v>5.570079913785655e-26</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>5.563890528060004e-26</v>
+        <v>5.299462897152655e-26</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>5.318545512703401e-26</v>
+        <v>5.043814627296214e-26</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>5.082131722528216e-26</v>
+        <v>4.803836142948794e-26</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>4.854630555550444e-26</v>
+        <v>4.580228482843791e-26</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>4.63602340978515e-26</v>
+        <v>4.373692685713645e-26</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>4.426540780133135e-26</v>
+        <v>4.184819504112982e-26</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>4.227708002663774e-26</v>
+        <v>4.013626407298977e-26</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>4.041469824713221e-26</v>
+        <v>3.859945172662956e-26</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>3.869771208796095e-26</v>
+        <v>3.723607482326214e-26</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>3.714557117427092e-26</v>
+        <v>3.604445018410137e-26</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>3.577772513121506e-26</v>
+        <v>3.502289463036566e-26</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>3.461362358394011e-26</v>
+        <v>3.416972498326865e-26</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>3.367271615759382e-26</v>
+        <v>3.348325806402484e-26</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>3.297445247732758e-26</v>
+        <v>3.296181069385135e-26</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>3.253828216828887e-26</v>
+        <v>3.260369969396246e-26</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>3.238365485562653e-26</v>
+        <v>3.240724188557348e-26</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>3.253002016448985e-26</v>
+        <v>3.237075408989976e-26</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>3.299682772002732e-26</v>
+        <v>3.24925531281567e-26</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.075595960652216e-26</v>
+        <v>1.065315912218213e-26</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.426354540189267e-26</v>
+        <v>1.42366283017853e-26</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.356056004741708e-26</v>
+        <v>1.341052418014705e-26</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.326003148371472e-26</v>
+        <v>1.320116520066832e-26</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.308837407610477e-26</v>
+        <v>1.316127266879595e-26</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.287984713549477e-26</v>
+        <v>1.296491727820863e-26</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.378426993645112e-26</v>
+        <v>1.376646530715137e-26</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.783029902607567e-26</v>
+        <v>1.770920016155299e-26</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>2.418235510446306e-26</v>
+        <v>2.408535755048868e-26</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>2.654118265800203e-26</v>
+        <v>2.663619188374327e-26</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>2.739332280893606e-26</v>
+        <v>2.759727955760835e-26</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>2.815222451051309e-26</v>
+        <v>2.823073071567519e-26</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>2.728036547209577e-26</v>
+        <v>2.705440737776498e-26</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>2.526800312006544e-26</v>
+        <v>2.500832094784193e-26</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>2.369324657466585e-26</v>
+        <v>2.411318287093576e-26</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>2.286898052570648e-26</v>
+        <v>2.37524339755923e-26</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>2.264776077870525e-26</v>
+        <v>2.307072680949475e-26</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>2.287323633246286e-26</v>
+        <v>2.311049678553056e-26</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>2.216432161031973e-26</v>
+        <v>2.223229208437948e-26</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>2.096276133697616e-26</v>
+        <v>2.080641719733286e-26</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>2.00848271745302e-26</v>
+        <v>2.005427899324226e-26</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>1.908867417307182e-26</v>
+        <v>1.911673016265671e-26</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.810652948061112e-26</v>
+        <v>1.815337656377903e-26</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>1.730094696169507e-26</v>
+        <v>1.740568910183309e-26</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>1.661753650802325e-26</v>
+        <v>1.678342509263137e-26</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>1.597840589659203e-26</v>
+        <v>1.616040644099291e-26</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>1.530801492522754e-26</v>
+        <v>1.542006780813808e-26</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>1.455482163631411e-26</v>
+        <v>1.454392516311756e-26</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>1.368131396291801e-26</v>
+        <v>1.357083492017097e-26</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>1.265171545984946e-26</v>
+        <v>1.254020953919212e-26</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.149085652355419e-26</v>
+        <v>1.148504463828626e-26</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.030229437622743e-26</v>
+        <v>1.043000051281647e-26</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>9.1948473237073e-27</v>
+        <v>9.399180432893158e-27</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>8.264676744785804e-27</v>
+        <v>8.422123630966934e-27</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>7.524473080097295e-27</v>
+        <v>7.564218868750753e-27</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>6.953078474527451e-27</v>
+        <v>6.905031487961266e-27</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>6.52262666982034e-27</v>
+        <v>6.472076743249569e-27</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>6.191604662822097e-27</v>
+        <v>6.185366877541563e-27</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>5.917779241055201e-27</v>
+        <v>5.953998377489084e-27</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>5.678025747094903e-27</v>
+        <v>5.733907802095955e-27</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>5.466744398555843e-27</v>
+        <v>5.523989768291286e-27</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>5.278984019399675e-27</v>
+        <v>5.324728797009832e-27</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>5.109793433588296e-27</v>
+        <v>5.136609409186614e-27</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>4.954221465083356e-27</v>
+        <v>4.960116125756386e-27</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>4.807502244410703e-27</v>
+        <v>4.795674150406885e-27</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>4.667415581825638e-27</v>
+        <v>4.642893806282943e-27</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>4.533590957332487e-27</v>
+        <v>4.500793331094989e-27</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>4.405699488833654e-27</v>
+        <v>4.368377634123607e-27</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>4.283412294231546e-27</v>
+        <v>4.244651624649401e-27</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>4.166400491428738e-27</v>
+        <v>4.128620211953139e-27</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>4.05433519832764e-27</v>
+        <v>4.019288305315426e-27</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>3.946887532830713e-27</v>
+        <v>3.915660814016916e-27</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>3.843728612840377e-27</v>
+        <v>3.816742647338225e-27</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>3.744561066413051e-27</v>
+        <v>3.721660324205694e-27</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>3.649243622921986e-27</v>
+        <v>3.630142817786705e-27</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>3.557683262806788e-27</v>
+        <v>3.542105320430685e-27</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>3.469786980632983e-27</v>
+        <v>3.457463079003995e-27</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>3.385461770965976e-27</v>
+        <v>3.376131340372888e-27</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>3.30461462837121e-27</v>
+        <v>3.298025351403647e-27</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>3.227152547414096e-27</v>
+        <v>3.223060358962529e-27</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>3.15298252266015e-27</v>
+        <v>3.151151609915888e-27</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>3.08201154867478e-27</v>
+        <v>3.082214351129976e-27</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>3.014146620023403e-27</v>
+        <v>3.016163829471051e-27</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>2.949294731271523e-27</v>
+        <v>2.952915291805461e-27</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>2.887362876984556e-27</v>
+        <v>2.892383984999462e-27</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>2.828258051727945e-27</v>
+        <v>2.834485155919341e-27</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>2.771887250067112e-27</v>
+        <v>2.779134051431361e-27</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>2.718157466567551e-27</v>
+        <v>2.726245918401861e-27</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>2.666975695794683e-27</v>
+        <v>2.675736003697099e-27</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>2.61824893231393e-27</v>
+        <v>2.627519554183345e-27</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>2.571884170690782e-27</v>
+        <v>2.581511816726927e-27</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>2.52778840549066e-27</v>
+        <v>2.537628038194111e-27</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>2.485868631279011e-27</v>
+        <v>2.495783465451184e-27</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>2.446031842621261e-27</v>
+        <v>2.455893345364416e-27</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>2.408185034082891e-27</v>
+        <v>2.41787292480013e-27</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>2.37223520022933e-27</v>
+        <v>2.381637450624595e-27</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>2.338089335626005e-27</v>
+        <v>2.347102169704084e-27</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>2.305654434838393e-27</v>
+        <v>2.314182328904912e-27</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>2.274837492431923e-27</v>
+        <v>2.282793175093354e-27</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>2.245545502972041e-27</v>
+        <v>2.252849955135696e-27</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>2.217685461024179e-27</v>
+        <v>2.224267915898212e-27</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>2.191164361153806e-27</v>
+        <v>2.196962304247216e-27</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>2.165889197926356e-27</v>
+        <v>2.170848367048981e-27</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>2.141766965907274e-27</v>
+        <v>2.145841351169795e-27</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.118704659661994e-27</v>
+        <v>2.121856503475935e-27</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.096609273755981e-27</v>
+        <v>2.098809070833709e-27</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.075387802754672e-27</v>
+        <v>2.076614300109394e-27</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.05494724319911e-27</v>
+        <v>2.055187440110482e-27</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>2.035201650558576e-27</v>
+        <v>2.034450675678931e-27</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>2.016087993831053e-27</v>
+        <v>2.014348706267917e-27</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>1.997547883130871e-27</v>
+        <v>1.994830791646551e-27</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>1.979522928572389e-27</v>
+        <v>1.975846191583971e-27</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>1.961954740269935e-27</v>
+        <v>1.957344165849291e-27</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>1.944784928337849e-27</v>
+        <v>1.939273974211631e-27</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>1.927955102890463e-27</v>
+        <v>1.921584876440106e-27</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>1.91140687404213e-27</v>
+        <v>1.904226132303852e-27</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>1.895081851907183e-27</v>
+        <v>1.887147001571983e-27</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>1.878921646599962e-27</v>
+        <v>1.870296744013619e-27</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>1.862867868234796e-27</v>
+        <v>1.853624619397876e-27</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>1.846862126926041e-27</v>
+        <v>1.837079887493888e-27</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>1.830846032788028e-27</v>
+        <v>1.82061180807077e-27</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>1.81476119593509e-27</v>
+        <v>1.804169640897636e-27</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>1.798549226481579e-27</v>
+        <v>1.787702645743621e-27</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.782151734541829e-27</v>
+        <v>1.77116008237784e-27</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>1.765510330230177e-27</v>
+        <v>1.754491210569414e-27</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.748566623660956e-27</v>
+        <v>1.737645290087457e-27</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.731262224948519e-27</v>
+        <v>1.720571580701104e-27</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.713538744207199e-27</v>
+        <v>1.70321934217947e-27</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>1.695337791551327e-27</v>
+        <v>1.685537834291669e-27</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.676600977095259e-27</v>
+        <v>1.667476316806836e-27</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.657269910953323e-27</v>
+        <v>1.648984049494086e-27</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.637286203239862e-27</v>
+        <v>1.63001029212254e-27</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.616591464069203e-27</v>
+        <v>1.610504304461311e-27</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.595127303555705e-27</v>
+        <v>1.590415346279537e-27</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.572847027191245e-27</v>
+        <v>1.569699047082245e-27</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.549766427337858e-27</v>
+        <v>1.548345069039039e-27</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.525922079882546e-27</v>
+        <v>1.526354393797236e-27</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>1.501350574708779e-27</v>
+        <v>1.503728010627144e-27</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.476088501700038e-27</v>
+        <v>1.480466908799075e-27</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.450172450739794e-27</v>
+        <v>1.456572077583333e-27</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.423639011711551e-27</v>
+        <v>1.432044506250255e-27</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.396524774498779e-27</v>
+        <v>1.406885184070143e-27</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.368866328984948e-27</v>
+        <v>1.381095100313302e-27</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.340700265053562e-27</v>
+        <v>1.354675244250067e-27</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.312063172588093e-27</v>
+        <v>1.327626605150742e-27</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.282991641472021e-27</v>
+        <v>1.299950172285642e-27</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.253522261588814e-27</v>
+        <v>1.271646934925068e-27</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.22369162282198e-27</v>
+        <v>1.24271788233936e-27</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.193536315054988e-27</v>
+        <v>1.21316400379882e-27</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.163092928171305e-27</v>
+        <v>1.182986288573749e-27</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>1.132398052054441e-27</v>
+        <v>1.152185725934487e-27</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>1.101486557324263e-27</v>
+        <v>1.12076769462966e-27</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>1.070375051552984e-27</v>
+        <v>1.088784201075613e-27</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>1.039069129553565e-27</v>
+        <v>1.056315368533562e-27</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>1.007574234274956e-27</v>
+        <v>1.023441707991211e-27</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>9.75895808666063e-28</v>
+        <v>9.902437304362235e-28</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>9.44039295675809e-28</v>
+        <v>9.56801946856275e-28</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>9.120101382531003e-28</v>
+        <v>9.231968682390278e-28</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>8.79813779346887e-28</v>
+        <v>8.895090055721889e-28</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>8.474556619060767e-28</v>
+        <v>8.558188698434198e-28</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>8.149412288795759e-28</v>
+        <v>8.222069720403826e-28</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>7.822759232163356e-28</v>
+        <v>7.887538231507839e-28</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>7.494651878652622e-28</v>
+        <v>7.555399341622855e-28</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>7.165144657752625e-28</v>
+        <v>7.226458160625496e-28</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>6.834507170706066e-28</v>
+        <v>6.901661284891761e-28</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>6.505644795326511e-28</v>
+        <v>6.583688469511242e-28</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>6.183229486274219e-28</v>
+        <v>6.276381084745821e-28</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>5.871965757360698e-28</v>
+        <v>5.983601910174547e-28</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>5.576558122397861e-28</v>
+        <v>5.709213725376856e-28</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>5.301711095197208e-28</v>
+        <v>5.457079309931791e-28</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>5.052129189570373e-28</v>
+        <v>5.231061443418526e-28</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>4.832516919328902e-28</v>
+        <v>5.035022905416152e-28</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>4.647578798284634e-28</v>
+        <v>4.872826475504024e-28</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>4.502019340249102e-28</v>
+        <v>4.74833493326122e-28</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>4.400543059033904e-28</v>
+        <v>4.665411058266889e-28</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>4.347854468450774e-28</v>
+        <v>4.627917630100279e-28</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>4.348658082311292e-28</v>
+        <v>4.639717428340521e-28</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>4.407191726766616e-28</v>
+        <v>4.704247589886312e-28</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>4.521053868036506e-28</v>
+        <v>4.818889820569432e-28</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>4.682902237432237e-28</v>
+        <v>4.976519626833841e-28</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>4.885276930205256e-28</v>
+        <v>5.169905225104793e-28</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>5.120718041607083e-28</v>
+        <v>5.391814831807617e-28</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>5.381765666888919e-28</v>
+        <v>5.635016663367334e-28</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>5.660959901302269e-28</v>
+        <v>5.892278936209254e-28</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>5.950840840098545e-28</v>
+        <v>6.1563698667586e-28</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>6.243948578529286e-28</v>
+        <v>6.420057671440711e-28</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>6.532823211845637e-28</v>
+        <v>6.676110566680565e-28</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>6.810004835299141e-28</v>
+        <v>6.917296768903503e-28</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>7.068033544141314e-28</v>
+        <v>7.136384494534837e-28</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>7.299449433623334e-28</v>
+        <v>7.326141959999589e-28</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>7.496792598996734e-28</v>
+        <v>7.479337381723085e-28</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>7.65325393454384e-28</v>
+        <v>7.590154929291971e-28</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>7.771131176497992e-28</v>
+        <v>7.672592664198831e-28</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>7.859423179502074e-28</v>
+        <v>7.75522837124013e-28</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>7.927329002862194e-28</v>
+        <v>7.866973349377397e-28</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>8.008085167154002e-28</v>
+        <v>8.03425446546245e-28</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>8.197318892035349e-28</v>
+        <v>8.27643060217453e-28</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>8.516899099615466e-28</v>
+        <v>8.577693957749476e-28</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>8.851458971672172e-28</v>
+        <v>8.8666450351297e-28</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>9.088304256123715e-28</v>
+        <v>9.075224318706943e-28</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>9.202676201700594e-28</v>
+        <v>9.183960296209753e-28</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>9.201154821385314e-28</v>
+        <v>9.190697419544913e-28</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>9.090358559292001e-28</v>
+        <v>9.093301375409814e-28</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>8.877915408310892e-28</v>
+        <v>8.890918680155291e-28</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>8.5913603855311e-28</v>
+        <v>8.607952189905629e-28</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>8.276452519393242e-28</v>
+        <v>8.291925836950459e-28</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>7.979622961008633e-28</v>
+        <v>7.991216285678974e-28</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>7.747302861488994e-28</v>
+        <v>7.754200200480778e-28</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>7.625923371945622e-28</v>
+        <v>7.629254245745044e-28</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>7.661915643489953e-28</v>
+        <v>7.664755085861092e-28</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>7.901710827233583e-28</v>
+        <v>7.909079385218398e-28</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>8.391740074287752e-28</v>
+        <v>8.410603808206079e-28</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>9.148475379874436e-28</v>
+        <v>9.186092139854185e-28</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>9.840516507156917e-28</v>
+        <v>9.885233640627228e-28</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.002447915588335e-27</v>
+        <v>1.003915207029888e-27</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>9.810258043168452e-28</v>
+        <v>9.760806074027195e-28</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>9.476694520521359e-28</v>
+        <v>9.341166841127351e-28</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>9.17272592658357e-28</v>
+        <v>8.947330987771273e-28</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>8.881732066292591e-28</v>
+        <v>8.58851544268343e-28</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>8.576350128465098e-28</v>
+        <v>8.263692714793118e-28</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>8.229220837695787e-28</v>
+        <v>7.971835937014786e-28</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>7.831652447893275e-28</v>
+        <v>7.715212641028453e-28</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>7.437195849480487e-28</v>
+        <v>7.507074782935016e-28</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>7.112358701423084e-28</v>
+        <v>7.362960896859353e-28</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>6.923648662686704e-28</v>
+        <v>7.298409516926336e-28</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>6.929811838467109e-28</v>
+        <v>7.325435479131496e-28</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>7.085216434268062e-28</v>
+        <v>7.408666688864583e-28</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>7.269498957361766e-28</v>
+        <v>7.478803315772407e-28</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>7.360671870735976e-28</v>
+        <v>7.465808223290074e-28</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>7.263284355672502e-28</v>
+        <v>7.315296076081082e-28</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>6.995816415751747e-28</v>
+        <v>7.040079847380723e-28</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>6.607317360284892e-28</v>
+        <v>6.671002799312744e-28</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>6.146836872400947e-28</v>
+        <v>6.238908414484758e-28</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>5.663424596878704e-28</v>
+        <v>5.774640180591695e-28</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>5.201964077949104e-28</v>
+        <v>5.309594224414577e-28</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>4.791710447776942e-28</v>
+        <v>4.877239803535924e-28</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>4.45825482000536e-28</v>
+        <v>4.511532212738217e-28</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>4.227188308277715e-28</v>
+        <v>4.246426746804146e-28</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>4.122119825031031e-28</v>
+        <v>4.113554942456025e-28</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>4.13553869207517e-28</v>
+        <v>4.108066470032337e-28</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>4.235208930278045e-28</v>
+        <v>4.196125235371261e-28</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>4.388212463837659e-28</v>
+        <v>4.343095514268567e-28</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>4.561631216951788e-28</v>
+        <v>4.514341582519802e-28</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>4.72254711381842e-28</v>
+        <v>4.67522771592072e-28</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>4.838042078635481e-28</v>
+        <v>4.791118190267012e-28</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>4.875198035600892e-28</v>
+        <v>4.827377281354369e-28</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>4.801236201284609e-28</v>
+        <v>4.749516296807193e-28</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>4.601521313539646e-28</v>
+        <v>4.542198168093819e-28</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>4.297371099596962e-28</v>
+        <v>4.228036460293842e-28</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>3.91433570653281e-28</v>
+        <v>3.834112322896847e-28</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>3.477965281423037e-28</v>
+        <v>3.387506905391999e-28</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>3.013809971343612e-28</v>
+        <v>2.915301357268589e-28</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>2.547419923370294e-28</v>
+        <v>2.444576828015699e-28</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>2.10434528457948e-28</v>
+        <v>2.002414467123049e-28</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.710136202046923e-28</v>
+        <v>1.615895424079714e-28</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.390289259652789e-28</v>
+        <v>1.312041666043632e-28</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.159225004145493e-28</v>
+        <v>1.105637173062443e-28</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>1.006787682992859e-28</v>
+        <v>9.843114086148225e-29</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>9.195171548825699e-29</v>
+        <v>9.320427950337972e-29</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>8.839532785023019e-29</v>
+        <v>9.328097546524004e-29</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>8.86635912539766e-29</v>
+        <v>9.705907098036517e-29</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>9.141049156826189e-29</v>
+        <v>1.029364082820564e-28</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>9.529001466185615e-29</v>
+        <v>1.093108296036192e-28</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>9.895614640352382e-29</v>
+        <v>1.145801771783495e-28</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.011347865339037e-28</v>
+        <v>1.172315399544177e-28</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.016455791766363e-28</v>
+        <v>1.171093679919467e-28</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>1.011592803895184e-28</v>
+        <v>1.151143601961249e-28</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>1.003690746178094e-28</v>
+        <v>1.121750495999506e-28</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>9.996814630676804e-29</v>
+        <v>1.092199692364196e-28</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>1.006496799016539e-28</v>
+        <v>1.071776521385277e-28</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>1.031068598477253e-28</v>
+        <v>1.069766313392732e-28</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>1.080328705902411e-28</v>
+        <v>1.095454398716513e-28</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>1.161208965744601e-28</v>
+        <v>1.158126107686583e-28</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>1.278205142719382e-28</v>
+        <v>1.264043906565372e-28</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>1.425766451737261e-28</v>
+        <v>1.407003775421772e-28</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.59575258371973e-28</v>
+        <v>1.577588425522548e-28</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.780023226937328e-28</v>
+        <v>1.766380564844986e-28</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.970438069660678e-28</v>
+        <v>1.963962901366461e-28</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>2.158856800160144e-28</v>
+        <v>2.160918143064078e-28</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>2.337139106706349e-28</v>
+        <v>2.347828997915212e-28</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>2.497144677569897e-28</v>
+        <v>2.515278173897216e-28</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>2.630800530729545e-28</v>
+        <v>2.653918665153599e-28</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>2.742661525705187e-28</v>
+        <v>2.767585797862819e-28</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>2.864688490210889e-28</v>
+        <v>2.888724266740157e-28</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>3.032434219212273e-28</v>
+        <v>3.053528457595335e-28</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>3.281451507675104e-28</v>
+        <v>3.298192756238214e-28</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>3.647293150565097e-28</v>
+        <v>3.658911548478611e-28</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>4.165511942848243e-28</v>
+        <v>4.171879220126607e-28</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>4.871660679489806e-28</v>
+        <v>4.873290156991572e-28</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>5.801292155455697e-28</v>
+        <v>5.799338744883511e-28</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>6.989157816603927e-28</v>
+        <v>6.985411902095166e-28</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>8.425118679460412e-28</v>
+        <v>8.421663373057153e-28</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.003123065165937e-27</v>
+        <v>1.002992409208509e-27</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.172391958434291e-27</v>
+        <v>1.172635195075585e-27</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.341961132865331e-27</v>
+        <v>1.342710484064646e-27</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.503473173573053e-27</v>
+        <v>1.504834065333166e-27</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.648570665671687e-27</v>
+        <v>1.650621728038848e-27</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.768896194275431e-27</v>
+        <v>1.771689261339368e-27</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>1.856092344498327e-27</v>
+        <v>1.859652454392243e-27</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>1.903548461559746e-27</v>
+        <v>1.907875412231834e-27</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>1.913795732384722e-27</v>
+        <v>1.918872223882205e-27</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>1.892346003437873e-27</v>
+        <v>1.898140292664907e-27</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.844712761540137e-27</v>
+        <v>1.851178663718821e-27</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.776409493512435e-27</v>
+        <v>1.783486382182802e-27</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.692949686175684e-27</v>
+        <v>1.700562493195711e-27</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>1.599846826350762e-27</v>
+        <v>1.607906041896363e-27</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.502614400858676e-27</v>
+        <v>1.511016073423704e-27</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.406765814612739e-27</v>
+        <v>1.415391551373583e-27</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.316716634489566e-27</v>
+        <v>1.325438488144646e-27</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.233032392509199e-27</v>
+        <v>1.241729999054997e-27</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.155435116473268e-27</v>
+        <v>1.16399944992004e-27</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.083646834183443e-27</v>
+        <v>1.091980206555222e-27</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>1.017389573441367e-27</v>
+        <v>1.025405634775962e-27</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>9.563853620487729e-28</v>
+        <v>9.640091003977641e-28</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>9.003562278072994e-28</v>
+        <v>9.075239692360454e-28</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>8.490241985186185e-28</v>
+        <v>8.556836071062521e-28</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>8.021113019843817e-28</v>
+        <v>8.082213798238105e-28</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>7.593395660063023e-28</v>
+        <v>7.648706532042099e-28</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>7.204310183860295e-28</v>
+        <v>7.253647930628741e-28</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>6.851076869252199e-28</v>
+        <v>6.894371652152349e-28</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>6.530915994255768e-28</v>
+        <v>6.56821135476771e-28</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>6.241047836887546e-28</v>
+        <v>6.272500696629118e-28</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>5.97869267516414e-28</v>
+        <v>6.004573335890929e-28</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>5.741070787102495e-28</v>
+        <v>5.761762930707847e-28</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>5.525402450719204e-28</v>
+        <v>5.54140313923421e-28</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>5.329074755222826e-28</v>
+        <v>5.34098017447262e-28</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>5.150589127784972e-28</v>
+        <v>5.158999351662402e-28</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>4.988903572441429e-28</v>
+        <v>4.994383542043826e-28</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>4.84297747260596e-28</v>
+        <v>4.846056878348015e-28</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>4.71177021169241e-28</v>
+        <v>4.712943493306183e-28</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>4.594241173114572e-28</v>
+        <v>4.593967519649488e-28</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>4.489349740286401e-28</v>
+        <v>4.488053090109248e-28</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>4.396055296621682e-28</v>
+        <v>4.394124337416615e-28</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>4.313317225534229e-28</v>
+        <v>4.311105394302768e-28</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>4.240094910437956e-28</v>
+        <v>4.237920393498987e-28</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>4.175347734746674e-28</v>
+        <v>4.173493467736446e-28</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>4.118035081874201e-28</v>
+        <v>4.11674874974633e-28</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>4.067116335234435e-28</v>
+        <v>4.066610372259901e-28</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>4.021550878241192e-28</v>
+        <v>4.022002468008342e-28</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>3.980298094308302e-28</v>
+        <v>3.981849169722848e-28</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>3.94231736684966e-28</v>
+        <v>3.945074610134678e-28</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>3.906568079279045e-28</v>
+        <v>3.910602921974976e-28</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>3.872009615010336e-28</v>
+        <v>3.877358237974988e-28</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>3.837601357457407e-28</v>
+        <v>3.844264690865951e-28</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>3.802302690034041e-28</v>
+        <v>3.810246413379015e-28</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>3.765072996154149e-28</v>
+        <v>3.774227538245455e-28</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>3.724871659231506e-28</v>
+        <v>3.735132198196413e-28</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>3.680658062679989e-28</v>
+        <v>3.691884525963131e-28</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>3.63139158991349e-28</v>
+        <v>3.643408654276862e-28</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>3.576031624345763e-28</v>
+        <v>3.588628715868732e-28</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>3.513537549390696e-28</v>
+        <v>3.52646884346999e-28</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>3.442961639603493e-28</v>
+        <v>3.455949075328658e-28</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>3.364439217997366e-28</v>
+        <v>3.377207643748504e-28</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>3.278805865745654e-28</v>
+        <v>3.29110576300732e-28</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>3.186908903345684e-28</v>
+        <v>3.198516767655268e-28</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>3.089595651294531e-28</v>
+        <v>3.100313992242253e-28</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>2.987713430089517e-28</v>
+        <v>2.997370771318436e-28</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>2.882109560227983e-28</v>
+        <v>2.890560439433988e-28</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>2.773631362206977e-28</v>
+        <v>2.780756331138792e-28</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>2.663126156523838e-28</v>
+        <v>2.668831780983021e-28</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>2.551441263675908e-28</v>
+        <v>2.555660123516851e-28</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>2.439424004160226e-28</v>
+        <v>2.442114693290154e-28</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>2.327921698474235e-28</v>
+        <v>2.32906882485321e-28</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>2.217781667114976e-28</v>
+        <v>2.217395852755889e-28</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>2.109851230579793e-28</v>
+        <v>2.107969111548371e-28</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>2.00497770936602e-28</v>
+        <v>2.001661935780825e-28</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.904008423970708e-28</v>
+        <v>1.899347660003134e-28</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.807790694891199e-28</v>
+        <v>1.801899618765475e-28</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.717155672131262e-28</v>
+        <v>1.71017446287811e-28</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.632467290564097e-28</v>
+        <v>1.624546798760527e-28</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.553562259174473e-28</v>
+        <v>1.544847272961125e-28</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.4802490593358e-28</v>
+        <v>1.470877408481508e-28</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.412336172421292e-28</v>
+        <v>1.402438728323077e-28</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>1.349632079804418e-28</v>
+        <v>1.339332755487493e-28</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>1.291945262858411e-28</v>
+        <v>1.281361012976181e-28</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>1.239084202956677e-28</v>
+        <v>1.228325023790735e-28</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>1.190857381472602e-28</v>
+        <v>1.180026310932735e-28</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>1.147073279779448e-28</v>
+        <v>1.13626639740363e-28</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>1.107540379250605e-28</v>
+        <v>1.096846806205003e-28</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>1.07206716125945e-28</v>
+        <v>1.061569060338422e-28</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>1.040462107179266e-28</v>
+        <v>1.030234682805359e-28</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>1.012533698383432e-28</v>
+        <v>1.002645196607384e-28</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>9.880904162453155e-29</v>
+        <v>9.786021247460565e-29</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>9.669407421382187e-29</v>
+        <v>9.579069902228686e-29</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>9.488931574355115e-29</v>
+        <v>9.403613160393804e-29</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>9.337561435105528e-29</v>
+        <v>9.257666251971417e-29</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>9.213381817366613e-29</v>
+        <v>9.139244406976624e-29</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>9.114477534872062e-29</v>
+        <v>9.046362855425014e-29</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>9.038933401355165e-29</v>
+        <v>8.977036827331794e-29</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>8.98483423054948e-29</v>
+        <v>8.929281552712424e-29</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>8.950264836188495e-29</v>
+        <v>8.901112261582294e-29</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>8.933310032005614e-29</v>
+        <v>8.890544183956722e-29</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>8.932054631734337e-29</v>
+        <v>8.895592549851111e-29</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>8.944583449108106e-29</v>
+        <v>8.91427258928081e-29</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>8.968981297860417e-29</v>
+        <v>8.944599532261223e-29</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>9.003332991724722e-29</v>
+        <v>8.984588608807707e-29</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>9.045723344434442e-29</v>
+        <v>9.032255048935589e-29</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>9.094237169723121e-29</v>
+        <v>9.085614082660324e-29</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>9.146959281324184e-29</v>
+        <v>9.142680939997238e-29</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>9.201974492971043e-29</v>
+        <v>9.201470850961649e-29</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>9.257367618397267e-29</v>
+        <v>9.259999045569041e-29</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>9.311223471336218e-29</v>
+        <v>9.316280753834674e-29</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>9.361626865521456e-29</v>
+        <v>9.36833120577402e-29</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>9.406873739521431e-29</v>
+        <v>9.414383133096547e-29</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>9.44848556533533e-29</v>
+        <v>9.455992225635583e-29</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>9.490501283605525e-29</v>
+        <v>9.497307680022324e-29</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>9.537026614369291e-29</v>
+        <v>9.542547489301831e-29</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>9.592167277663892e-29</v>
+        <v>9.595929646519149e-29</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>9.660028993526741e-29</v>
+        <v>9.661672144719469e-29</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>9.744717481995108e-29</v>
+        <v>9.743992976947851e-29</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>9.850338463106206e-29</v>
+        <v>9.847110136249286e-29</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>9.980997656897536e-29</v>
+        <v>9.975241615669059e-29</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.014080078340618e-28</v>
+        <v>1.013260540825203e-28</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.033385356266972e-28</v>
+        <v>1.032341950704358e-28</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.056426171472537e-28</v>
+        <v>1.055190190508867e-28</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.083613095961016e-28</v>
+        <v>1.082227059543215e-28</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.11535670173619e-28</v>
+        <v>1.11387435711196e-28</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.152067560801768e-28</v>
+        <v>1.150553882519589e-28</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.194156245161441e-28</v>
+        <v>1.192687435070571e-28</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.242033326819017e-28</v>
+        <v>1.240696814069492e-28</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.296109377778193e-28</v>
+        <v>1.295003818820828e-28</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.35679497004264e-28</v>
+        <v>1.356030248629028e-28</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.424500675616201e-28</v>
+        <v>1.424197902798713e-28</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.499637066502556e-28</v>
+        <v>1.499928580634342e-28</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>1.582614714705357e-28</v>
+        <v>1.583644081440344e-28</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.673613295357653e-28</v>
+        <v>1.675532474363627e-28</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.770329397320049e-28</v>
+        <v>1.773268272849441e-28</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.868948206689454e-28</v>
+        <v>1.872996041474029e-28</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.965633493637082e-28</v>
+        <v>1.970838666097618e-28</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>2.056549028333801e-28</v>
+        <v>2.062919032580083e-28</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>2.137858580950811e-28</v>
+        <v>2.145360026781637e-28</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>2.205725921659062e-28</v>
+        <v>2.214284534562242e-28</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>2.256314820629549e-28</v>
+        <v>2.265815441781903e-28</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>2.285789048033403e-28</v>
+        <v>2.296075634300761e-28</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>2.290312374041602e-28</v>
+        <v>2.301187997978805e-28</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>2.266048568825217e-28</v>
+        <v>2.277275418676117e-28</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>2.209161402555241e-28</v>
+        <v>2.220460782252701e-28</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>2.115814645402716e-28</v>
+        <v>2.126866974568611e-28</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>1.983522098950843e-28</v>
+        <v>1.993977100996807e-28</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.8190773957536e-28</v>
+        <v>1.828624128735144e-28</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.633175258484796e-28</v>
+        <v>1.641571554934205e-28</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.436523909773878e-28</v>
+        <v>1.443596478578509e-28</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.239831572250793e-28</v>
+        <v>1.24547599865308e-28</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.053806468545489e-28</v>
+        <v>1.057987214142945e-28</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>8.8915682128741e-29</v>
+        <v>8.919072240326211e-29</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>7.565908531065179e-29</v>
+        <v>7.580131273071485e-29</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>6.668167866326595e-29</v>
+        <v>6.670820229514501e-29</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>6.281032193906354e-29</v>
+        <v>6.274383329488267e-29</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>6.375776506439569e-29</v>
+        <v>6.362057765919275e-29</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>6.891890446304677e-29</v>
+        <v>6.873125331126848e-29</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>7.768861257342699e-29</v>
+        <v>7.746865406060795e-29</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>8.946176183392215e-29</v>
+        <v>8.922557371668501e-29</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>1.036332246829544e-28</v>
+        <v>1.033948060890097e-28</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.195978735589149e-28</v>
+        <v>1.193691449870612e-28</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.367505809001882e-28</v>
+        <v>1.365413842203121e-28</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.544862191452063e-28</v>
+        <v>1.543043175982822e-28</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>1.721996607323545e-28</v>
+        <v>1.720507389304448e-28</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.892857781000185e-28</v>
+        <v>1.891734420262735e-28</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>2.051394436866298e-28</v>
+        <v>2.050652206952881e-28</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>2.191555299305731e-28</v>
+        <v>2.19118868746961e-28</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>2.3072890927024e-28</v>
+        <v>2.307271799907718e-28</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>2.392544541440519e-28</v>
+        <v>2.392829482362299e-28</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>2.44127036990398e-28</v>
+        <v>2.441789672928124e-28</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>2.4474153024768e-28</v>
+        <v>2.448080309700091e-28</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>2.406212793712055e-28</v>
+        <v>2.406917805412524e-28</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.32150922300084e-28</v>
+        <v>2.322156600840474e-28</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.200691299159128e-28</v>
+        <v>2.201201784816491e-28</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>2.051156614691977e-28</v>
+        <v>2.051469361583774e-28</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.880302762104921e-28</v>
+        <v>1.880375335385996e-28</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.695527333902924e-28</v>
+        <v>1.695335710466266e-28</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.504227922591413e-28</v>
+        <v>1.503766491068152e-28</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.313802120675834e-28</v>
+        <v>1.31308368143524e-28</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.131647520661118e-28</v>
+        <v>1.130703285810605e-28</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>9.651617150527187e-29</v>
+        <v>9.640413084378406e-29</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>8.217372579179892e-29</v>
+        <v>8.205087006095124e-29</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>7.059759462531978e-29</v>
+        <v>7.047176179326002e-29</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>6.150593037257794e-29</v>
+        <v>6.138385690166488e-29</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>5.449492339179994e-29</v>
+        <v>5.438189293408438e-29</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>4.916076404119459e-29</v>
+        <v>4.906060743841942e-29</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>4.509964267899336e-29</v>
+        <v>4.50147379625935e-29</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>4.190774966341033e-29</v>
+        <v>4.183902205451275e-29</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>3.918259499039206e-29</v>
+        <v>3.912952189962841e-29</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>3.665279033830296e-29</v>
+        <v>3.661389808080573e-29</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>3.428748436223467e-29</v>
+        <v>3.426125949852369e-29</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>3.208159296378531e-29</v>
+        <v>3.206657992611018e-29</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>3.003003204455243e-29</v>
+        <v>3.002483313689258e-29</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>2.812771750612813e-29</v>
+        <v>2.813099290419276e-29</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>2.63695652501101e-29</v>
+        <v>2.638003300133822e-29</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>2.475049117809553e-29</v>
+        <v>2.476692720165595e-29</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>2.326541119167727e-29</v>
+        <v>2.32866492784686e-29</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>2.190924119245262e-29</v>
+        <v>2.193417300510327e-29</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>2.067689708201842e-29</v>
+        <v>2.07044721548866e-29</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.956329476196824e-29</v>
+        <v>1.959252050114194e-29</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.856335013389901e-29</v>
+        <v>1.859329181719604e-29</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.767197909940728e-29</v>
+        <v>1.770175987637524e-29</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.688409756008722e-29</v>
+        <v>1.691289845200351e-29</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.619462141753604e-29</v>
+        <v>1.622168131740785e-29</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.559846657334827e-29</v>
+        <v>1.562308224591262e-29</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.509054892912038e-29</v>
+        <v>1.511207501084404e-29</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.466578438644848e-29</v>
+        <v>1.468363338552805e-29</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>1.431908884692758e-29</v>
+        <v>1.433273114328945e-29</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>1.40453782121539e-29</v>
+        <v>1.405434205745426e-29</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>1.383956838372336e-29</v>
+        <v>1.38434399013482e-29</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>1.369657526323137e-29</v>
+        <v>1.369499844829648e-29</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>1.361131475227394e-29</v>
+        <v>1.36039914716249e-29</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>1.357870275244684e-29</v>
+        <v>1.356539274465905e-29</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>1.359365516534581e-29</v>
+        <v>1.357417604072444e-29</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>1.365108789256659e-29</v>
+        <v>1.362531513314663e-29</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>1.37459168357051e-29</v>
+        <v>1.371378379525133e-29</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>1.387305789635707e-29</v>
+        <v>1.383455580036404e-29</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>1.402742697611812e-29</v>
+        <v>1.398260492181024e-29</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>1.420393997658432e-29</v>
+        <v>1.415290493291575e-29</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>1.439751279935132e-29</v>
+        <v>1.434042960700604e-29</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>1.460306134601472e-29</v>
+        <v>1.45401527174065e-29</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>1.481550151817065e-29</v>
+        <v>1.474704803744307e-29</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>1.502974921741474e-29</v>
+        <v>1.495608934044115e-29</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>1.524072034534256e-29</v>
+        <v>1.516225039972615e-29</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.544333080355028e-29</v>
+        <v>1.5360504988624e-29</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.563249649363333e-29</v>
+        <v>1.554582688045995e-29</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.580313331718782e-29</v>
+        <v>1.571318984855991e-29</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.595015717580937e-29</v>
+        <v>1.585756766624929e-29</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.606848538398868e-29</v>
+        <v>1.597393549903636e-29</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.615451328048629e-29</v>
+        <v>1.605872486971681e-29</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>1.620891250211581e-29</v>
+        <v>1.611258091107889e-29</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>1.623312357294349e-29</v>
+        <v>1.613690637172035e-29</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>1.622858701703568e-29</v>
+        <v>1.613310400023899e-29</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>1.619674335845863e-29</v>
+        <v>1.610257654523251e-29</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>1.613903312127868e-29</v>
+        <v>1.604672675529873e-29</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>1.605689682956201e-29</v>
+        <v>1.596695737903529e-29</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>1.595177500737496e-29</v>
+        <v>1.586467116504001e-29</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>1.582510817878393e-29</v>
+        <v>1.574127086191073e-29</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>1.567833686785497e-29</v>
+        <v>1.559815921824499e-29</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>1.551290159865448e-29</v>
+        <v>1.543673898264064e-29</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>1.533024289524891e-29</v>
+        <v>1.52584129036956e-29</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>1.513180128170423e-29</v>
+        <v>1.50645837300073e-29</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>1.491901728208707e-29</v>
+        <v>1.485665421017385e-29</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>1.469333142046333e-29</v>
+        <v>1.46360270927926e-29</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>1.445618422089948e-29</v>
+        <v>1.44041051264615e-29</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>1.420901620746205e-29</v>
+        <v>1.416229105977853e-29</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>1.395326790421686e-29</v>
+        <v>1.391198764134098e-29</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>1.369037983523042e-29</v>
+        <v>1.365459761974684e-29</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>1.342179252456926e-29</v>
+        <v>1.339152374359408e-29</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>1.314894649629919e-29</v>
+        <v>1.312416876147999e-29</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>1.287328227448672e-29</v>
+        <v>1.285393542200255e-29</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>1.259624038319839e-29</v>
+        <v>1.258222647375977e-29</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>1.23192613465e-29</v>
+        <v>1.231044466534888e-29</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.204378568845831e-29</v>
+        <v>1.203999274536815e-29</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.177125393313913e-29</v>
+        <v>1.177227346241483e-29</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.150310660460898e-29</v>
+        <v>1.15086895650869e-29</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.124078422693438e-29</v>
+        <v>1.125064380198237e-29</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.098572732418115e-29</v>
+        <v>1.099953892169851e-29</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.07393764204158e-29</v>
+        <v>1.075677767283331e-29</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.050317203970485e-29</v>
+        <v>1.052376280398472e-29</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.027855470611414e-29</v>
+        <v>1.030189706375008e-29</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.006696494371017e-29</v>
+        <v>1.009258320072735e-29</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>9.869843276559411e-30</v>
+        <v>9.897223963514446e-30</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>9.688630228727783e-30</v>
+        <v>9.717222100708772e-30</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>9.5247663242819e-30</v>
+        <v>9.553980360908404e-30</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>9.379692087287749e-30</v>
+        <v>9.408901492710796e-30</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>9.254848018637877e-30</v>
+        <v>9.283388222256654e-30</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>9.151009510484951e-30</v>
+        <v>9.178198736749694e-30</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>9.066547481272699e-30</v>
+        <v>9.091761112788459e-30</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>8.999289671390422e-30</v>
+        <v>9.021977047772399e-30</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>8.947063821227682e-30</v>
+        <v>8.96674823910124e-30</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>8.907697671173836e-30</v>
+        <v>8.92397638417449e-30</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>8.879018961618373e-30</v>
+        <v>8.891563180391798e-30</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>8.85885543295076e-30</v>
+        <v>8.867410325152785e-30</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>8.845034825560403e-30</v>
+        <v>8.849419515857007e-30</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>8.835384879836768e-30</v>
+        <v>8.835492449904089e-30</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>8.827733336169308e-30</v>
+        <v>8.823530824693643e-30</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>8.819907934947448e-30</v>
+        <v>8.811436337625249e-30</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>8.809736416560638e-30</v>
+        <v>8.797110686098511e-30</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>8.795046521398349e-30</v>
+        <v>8.778455567513057e-30</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>8.77366598984999e-30</v>
+        <v>8.753372679268449e-30</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>8.743422562305054e-30</v>
+        <v>8.719763718764338e-30</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>8.702143979152924e-30</v>
+        <v>8.675530383400261e-30</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>8.64765798078307e-30</v>
+        <v>8.618574370575846e-30</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>8.577917430997089e-30</v>
+        <v>8.546919063792978e-30</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>8.493071937753791e-30</v>
+        <v>8.460724243168766e-30</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>8.395145217645331e-30</v>
+        <v>8.361972313147191e-30</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>8.286221072770639e-30</v>
+        <v>8.252704113048634e-30</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>8.168383305228351e-30</v>
+        <v>8.134960482193172e-30</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>8.043715717117374e-30</v>
+        <v>8.010782259901173e-30</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>7.914302110536668e-30</v>
+        <v>7.88221028549303e-30</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>7.782226287584818e-30</v>
+        <v>7.751285398288789e-30</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>7.649572050360888e-30</v>
+        <v>7.620048437608954e-30</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>7.51842320096346e-30</v>
+        <v>7.490540242773563e-30</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>7.390863541491491e-30</v>
+        <v>7.364801653103015e-30</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>7.268976874043906e-30</v>
+        <v>7.244873507917684e-30</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>7.154847000719314e-30</v>
+        <v>7.13279664653763e-30</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>7.050557723616655e-30</v>
+        <v>7.030611908283243e-30</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>6.95818421353394e-30</v>
+        <v>6.940351416290265e-30</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>6.878319981813221e-30</v>
+        <v>6.862551062999483e-30</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>6.808409296512122e-30</v>
+        <v>6.794566526633631e-30</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>6.745493562482399e-30</v>
+        <v>6.733346660289699e-30</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>6.68661418457564e-30</v>
+        <v>6.675840317064501e-30</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>6.628812567643655e-30</v>
+        <v>6.618996350055082e-30</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>6.569130116538038e-30</v>
+        <v>6.559763612358269e-30</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>6.504608236110544e-30</v>
+        <v>6.495090957071041e-30</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>6.43228833121287e-30</v>
+        <v>6.421927237290329e-30</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>6.34934223253091e-30</v>
+        <v>6.337361538282585e-30</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>6.257048012815526e-30</v>
+        <v>6.242897923657473e-30</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>6.161518867188526e-30</v>
+        <v>6.145239118042845e-30</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>6.06914541382952e-30</v>
+        <v>6.051386127749134e-30</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>5.986318270918393e-30</v>
+        <v>5.968339959087038e-30</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>5.91942805663499e-30</v>
+        <v>5.903101618367222e-30</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>5.874865389158985e-30</v>
+        <v>5.862672111900182e-30</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>5.858281849200036e-30</v>
+        <v>5.853242613598591e-30</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>5.862839858615386e-30</v>
+        <v>5.867318759265986e-30</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>5.871298838394165e-30</v>
+        <v>5.886006644791972e-30</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>5.866100777469876e-30</v>
+        <v>5.890064526107837e-30</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>5.829687664776076e-30</v>
+        <v>5.86025065914492e-30</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>5.749712698625501e-30</v>
+        <v>5.782957602119125e-30</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>5.637146193708624e-30</v>
+        <v>5.669788123106764e-30</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>5.509477403166987e-30</v>
+        <v>5.539393194763016e-30</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>5.384195884015128e-30</v>
+        <v>5.410424118287178e-30</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>5.275846611185147e-30</v>
+        <v>5.298414217685879e-30</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>5.185847452018826e-30</v>
+        <v>5.204996704512978e-30</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>5.111959562314136e-30</v>
+        <v>5.127932749104059e-30</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>5.051943943022463e-30</v>
+        <v>5.064983357829805e-30</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>5.003561595095035e-30</v>
+        <v>5.013909537060731e-30</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>4.964573519483248e-30</v>
+        <v>4.972472293167531e-30</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>4.932740717138459e-30</v>
+        <v>4.938432632520854e-30</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>4.905824189011952e-30</v>
+        <v>4.909551561491277e-30</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>4.881584936055114e-30</v>
+        <v>4.88359008644948e-30</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>4.857783959219237e-30</v>
+        <v>4.858309213766047e-30</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>4.832182259455681e-30</v>
+        <v>4.831469949811632e-30</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>4.802540837715777e-30</v>
+        <v>4.80083330095686e-30</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>4.766620694950899e-30</v>
+        <v>4.7641602735724e-30</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>4.722262386132079e-30</v>
+        <v>4.719291234424477e-30</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>4.669227544291516e-30</v>
+        <v>4.665982952687325e-30</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>4.60925103573671e-30</v>
+        <v>4.605960628218336e-30</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>4.544157714184318e-30</v>
+        <v>4.541039229266456e-30</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>4.475772433351024e-30</v>
+        <v>4.47303372408065e-30</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>4.405920046953316e-30</v>
+        <v>4.403759080909697e-30</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>4.33642540870787e-30</v>
+        <v>4.335030268002562e-30</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>4.269113372331365e-30</v>
+        <v>4.268662253608204e-30</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>4.20580879154029e-30</v>
+        <v>4.206470005975406e-30</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>4.148336520051327e-30</v>
+        <v>4.150268493353134e-30</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>4.098521411581132e-30</v>
+        <v>4.101872683990328e-30</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>4.05818831984623e-30</v>
+        <v>4.063097546135804e-30</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>4.029162098563306e-30</v>
+        <v>4.035758048038531e-30</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>4.012878137385666e-30</v>
+        <v>4.021264027499598e-30</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>4.008565521524292e-30</v>
+        <v>4.018730268190715e-30</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>4.014677316414145e-30</v>
+        <v>4.026464318228393e-30</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>4.029665729836081e-30</v>
+        <v>4.042772833575483e-30</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>4.051982969570944e-30</v>
+        <v>4.06596247019482e-30</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>4.080081243399552e-30</v>
+        <v>4.094339884049214e-30</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>4.112412759102802e-30</v>
+        <v>4.126211731101554e-30</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>4.147429724461514e-30</v>
+        <v>4.159884667314654e-30</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>4.183584420352152e-30</v>
+        <v>4.193665424254393e-30</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>4.232524361444958e-30</v>
+        <v>4.239508607779608e-30</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>4.355902568256686e-30</v>
+        <v>4.361089685115848e-30</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>4.626563223607037e-30</v>
+        <v>4.633656265866024e-30</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>5.07518036632504e-30</v>
+        <v>5.088650898896763e-30</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>5.665265076338149e-30</v>
+        <v>5.687749297690787e-30</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>6.354335444869624e-30</v>
+        <v>6.386401841659412e-30</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>7.09990956314114e-30</v>
+        <v>7.140058910212354e-30</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>7.85950552237419e-30</v>
+        <v>7.904170882759144e-30</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>8.590618537441725e-30</v>
+        <v>8.634194807491584e-30</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>9.249285234854659e-30</v>
+        <v>9.286012931764162e-30</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>9.789230537225108e-30</v>
+        <v>9.81618139735865e-30</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>1.016397444152677e-29</v>
+        <v>1.018131608478458e-29</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>1.032703694473175e-29</v>
+        <v>1.033803287454993e-29</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>1.024020386581167e-29</v>
+        <v>1.02508679124601e-29</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>9.945511205141809e-30</v>
+        <v>9.961252627925691e-30</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>9.530122202762266e-30</v>
+        <v>9.553859123856728e-30</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>9.081702999863194e-30</v>
+        <v>9.113841380286555e-30</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>8.687919737633498e-30</v>
+        <v>8.726353377247286e-30</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>8.428617801374751e-30</v>
+        <v>8.46893277486466e-30</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>8.295666886788932e-30</v>
+        <v>8.33344124418752e-30</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>8.225543990950316e-30</v>
+        <v>8.257795732851193e-30</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>8.153862366774159e-30</v>
+        <v>8.179072022761355e-30</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>8.016235267175556e-30</v>
+        <v>8.034345895823507e-30</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>7.749208003064039e-30</v>
+        <v>7.761609183709116e-30</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>7.332072815529459e-30</v>
+        <v>7.340866463670243e-30</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>6.803744264495673e-30</v>
+        <v>6.810720609995265e-30</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>6.20756161610598e-30</v>
+        <v>6.214123208234009e-30</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>5.58686413650392e-30</v>
+        <v>5.594025843936534e-30</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>4.984991091831326e-30</v>
+        <v>4.993380102651198e-30</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>4.445281748232185e-30</v>
+        <v>4.455137569928508e-30</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>4.010386707311735e-30</v>
+        <v>4.021566421008866e-30</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>3.698913114582079e-30</v>
+        <v>3.71107481677191e-30</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>3.499727481831409e-30</v>
+        <v>3.51255719323998e-30</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>3.399852044214248e-30</v>
+        <v>3.413077780877856e-30</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>3.386309036885687e-30</v>
+        <v>3.399700810150887e-30</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>3.446120695000518e-30</v>
+        <v>3.459490511524118e-30</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>3.566309253713725e-30</v>
+        <v>3.579511115462792e-30</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>3.733896948180154e-30</v>
+        <v>3.746826852432012e-30</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>3.935906013554481e-30</v>
+        <v>3.948501952896709e-30</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>4.15935868499195e-30</v>
+        <v>4.171600647322382e-30</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>4.391277197647051e-30</v>
+        <v>4.40318716617378e-30</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>4.618683786675081e-30</v>
+        <v>4.630325739916454e-30</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>4.828600687230703e-30</v>
+        <v>4.840080599015325e-30</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>5.008256709174083e-30</v>
+        <v>5.019720861097815e-30</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>5.150484208463528e-30</v>
+        <v>5.162073413592806e-30</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>5.254237973471319e-30</v>
+        <v>5.266037561178186e-30</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>5.318783399748576e-30</v>
+        <v>5.33082067830915e-30</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>5.34338588284672e-30</v>
+        <v>5.355630139441204e-30</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>5.327310818316979e-30</v>
+        <v>5.339673319029654e-30</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>5.269823601710727e-30</v>
+        <v>5.282157591529958e-30</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>5.170189628579167e-30</v>
+        <v>5.182290331397396e-30</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>5.027678248117735e-30</v>
+        <v>5.039282902081811e-30</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>4.844702192344137e-30</v>
+        <v>4.855518155469631e-30</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>4.632465507016051e-30</v>
+        <v>4.642248862081208e-30</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>4.403697376048543e-30</v>
+        <v>4.412266567159486e-30</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>4.171126983356741e-30</v>
+        <v>4.178362815947474e-30</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>3.947483512855133e-30</v>
+        <v>3.953329153687535e-30</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>3.745496148459016e-30</v>
+        <v>3.749957125622849e-30</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>3.577894074082933e-30</v>
+        <v>3.581038276995835e-30</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>3.457406473641997e-30</v>
+        <v>3.459364153049486e-30</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>3.39676253105115e-30</v>
+        <v>3.397726299026624e-30</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>3.408691430225191e-30</v>
+        <v>3.408916260169926e-30</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>3.505922355079121e-30</v>
+        <v>3.505725581722271e-30</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>3.701184489527636e-30</v>
+        <v>3.700945808926236e-30</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>4.007207017485994e-30</v>
+        <v>4.007368487024958e-30</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>4.433893676691576e-30</v>
+        <v>4.434948242757433e-30</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>4.955793160161927e-30</v>
+        <v>4.958141103963205e-30</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>5.523393520469383e-30</v>
+        <v>5.527244763194815e-30</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>6.086721658049744e-30</v>
+        <v>6.092093888424976e-30</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>6.59580447334079e-30</v>
+        <v>6.602523147628386e-30</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>7.000668866778733e-30</v>
+        <v>7.008367208778165e-30</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>7.257982631735962e-30</v>
+        <v>7.266137203809294e-30</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>7.385121731121677e-30</v>
+        <v>7.393377609117862e-30</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>7.431997311156266e-30</v>
+        <v>7.440342354626342e-30</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>7.773206053062788e-30</v>
+        <v>7.782357698251009e-30</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>9.151338781962166e-30</v>
+        <v>9.16294017698652e-30</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.092585015445523e-29</v>
+        <v>1.094043968725268e-29</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.23045530882839e-29</v>
+        <v>1.232135183174449e-29</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.257499769217178e-29</v>
+        <v>1.259205105056614e-29</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.186528198931983e-29</v>
+        <v>1.188095286112279e-29</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.080740146758267e-29</v>
+        <v>1.082126537702752e-29</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.003485970815057e-29</v>
+        <v>1.004770537636127e-29</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>9.781670626679892e-30</v>
+        <v>9.794632099003351e-30</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>9.627239217580068e-30</v>
+        <v>9.640379605298812e-30</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>9.357439204015098e-30</v>
+        <v>9.370300061410615e-30</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>8.986339802371718e-30</v>
+        <v>8.998521920610356e-30</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>8.535157014501853e-30</v>
+        <v>8.546338611342448e-30</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>8.025106842258394e-30</v>
+        <v>8.035043562052279e-30</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>7.47740528749446e-30</v>
+        <v>7.48593020118545e-30</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>6.91326835206165e-30</v>
+        <v>6.920291957186056e-30</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>6.35318538326346e-30</v>
+        <v>6.358694771633011e-30</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>5.807223520181586e-30</v>
+        <v>5.811270440186595e-30</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>5.27765130119811e-30</v>
+        <v>5.280343225215713e-30</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>4.766549203599944e-30</v>
+        <v>4.768049112587142e-30</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>4.275997704673936e-30</v>
+        <v>4.276524088167587e-30</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>3.808077281705615e-30</v>
+        <v>3.807904137822434e-30</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>3.364868411982232e-30</v>
+        <v>3.364325247418797e-30</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>2.948451572789401e-30</v>
+        <v>2.947923402822143e-30</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>2.560912197204822e-30</v>
+        <v>2.560839229280661e-30</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>2.205740917694547e-30</v>
+        <v>2.206528834517754e-30</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.889758699741407e-30</v>
+        <v>1.89156602952121e-30</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.620269008348503e-30</v>
+        <v>1.622976318944904e-30</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.404575308518771e-30</v>
+        <v>1.407785207442543e-30</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>1.249385794194866e-30</v>
+        <v>1.252439990964385e-30</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.151403278786669e-30</v>
+        <v>1.153669370872017e-30</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>1.099024920569421e-30</v>
+        <v>1.100134459814874e-30</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>1.080396250224528e-30</v>
+        <v>1.080251955293571e-30</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>1.083662798433537e-30</v>
+        <v>1.082438554808873e-30</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>1.096970095877958e-30</v>
+        <v>1.095110955861498e-30</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>1.108463673239286e-30</v>
+        <v>1.106685855952158e-30</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.107349814168491e-30</v>
+        <v>1.1065943377919e-30</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>1.093641526756822e-30</v>
+        <v>1.094601823716442e-30</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.073662242614217e-30</v>
+        <v>1.076508317601731e-30</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.05381447204363e-30</v>
+        <v>1.058189445319553e-30</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.040500725347953e-30</v>
+        <v>1.045520832741641e-30</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.040090843957761e-30</v>
+        <v>1.044348687782141e-30</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.05393723208214e-30</v>
+        <v>1.056001071724956e-30</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.073015087174848e-30</v>
+        <v>1.072461486138902e-30</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.087475415965858e-30</v>
+        <v>1.084964999308847e-30</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.09387161343592e-30</v>
+        <v>1.090425111900615e-30</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.093441185061728e-30</v>
+        <v>1.08990977502482e-30</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.087528815605897e-30</v>
+        <v>1.08458199968284e-30</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.077479189831052e-30</v>
+        <v>1.075604796876062e-30</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.064636992499788e-30</v>
+        <v>1.064141177605845e-30</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.050346908374741e-30</v>
+        <v>1.051354152873584e-30</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.035946317973671e-30</v>
+        <v>1.038400440840622e-30</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.022278697791353e-30</v>
+        <v>1.026011245591049e-30</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.009388134913862e-30</v>
+        <v>1.014229071723272e-30</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>9.972458388910854e-31</v>
+        <v>1.003033637512608e-30</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>9.858230192729513e-31</v>
+        <v>9.92404661234406e-31</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>9.750908856093816e-31</v>
+        <v>9.823218611640133e-31</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>9.650206474502713e-31</v>
+        <v>9.727649555767504e-31</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>9.555835143455437e-31</v>
+        <v>9.637136627479649e-31</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>9.467506958451205e-31</v>
+        <v>9.551477009530025e-31</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>9.384934014988994e-31</v>
+        <v>9.470467884671865e-31</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>9.307828408568091e-31</v>
+        <v>9.3939064356587e-31</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>9.235902234687494e-31</v>
+        <v>9.321589845243769e-31</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>9.168867588846413e-31</v>
+        <v>9.253315296180537e-31</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>9.106436566544035e-31</v>
+        <v>9.188879971222437e-31</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>9.048321263279393e-31</v>
+        <v>9.128081053122739e-31</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>8.994233774551673e-31</v>
+        <v>9.070715724634886e-31</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>8.943886195860063e-31</v>
+        <v>9.016581168512312e-31</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>8.896990622703609e-31</v>
+        <v>8.9654745675083e-31</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>8.853259150581492e-31</v>
+        <v>8.917193104376286e-31</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>8.812403874992887e-31</v>
+        <v>8.871533961869695e-31</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>8.774136891436857e-31</v>
+        <v>8.828294322741829e-31</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>8.738170295412606e-31</v>
+        <v>8.787271369746147e-31</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>8.704216182419213e-31</v>
+        <v>8.748262285635963e-31</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>8.671986647955844e-31</v>
+        <v>8.711064253164696e-31</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>8.641193787521636e-31</v>
+        <v>8.675474455085732e-31</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>8.611549696615755e-31</v>
+        <v>8.641290074152483e-31</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>8.582766470737284e-31</v>
+        <v>8.608308293118275e-31</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>8.554623881635779e-31</v>
+        <v>8.576381860495101e-31</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>8.527278595882263e-31</v>
+        <v>8.545672975252587e-31</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>8.501017712203994e-31</v>
+        <v>8.516450928016051e-31</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>8.476128455367109e-31</v>
+        <v>8.488985112895348e-31</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>8.452898050137686e-31</v>
+        <v>8.463544924000262e-31</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>8.431613721281862e-31</v>
+        <v>8.440399755440653e-31</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>8.41256269356578e-31</v>
+        <v>8.419819001326376e-31</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>8.396032191755517e-31</v>
+        <v>8.402072055767226e-31</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>8.382309440617215e-31</v>
+        <v>8.387428312873059e-31</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>8.371681664916997e-31</v>
+        <v>8.376157166753712e-31</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>8.364436089420966e-31</v>
+        <v>8.368528011519007e-31</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>8.360859938895246e-31</v>
+        <v>8.364810241278785e-31</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>8.361240438105961e-31</v>
+        <v>8.365273250142881e-31</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>8.365864811819223e-31</v>
+        <v>8.370186432221128e-31</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>8.375020284801148e-31</v>
+        <v>8.379819181623353e-31</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>8.38899408181787e-31</v>
+        <v>8.394440892459404e-31</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>8.408073427635497e-31</v>
+        <v>8.414320958839112e-31</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>8.43254554702013e-31</v>
+        <v>8.439728774872288e-31</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>8.462697664737926e-31</v>
+        <v>8.470933734668806e-31</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>8.498817005554989e-31</v>
+        <v>8.508205232338486e-31</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>8.541190794237394e-31</v>
+        <v>8.551812661991119e-31</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>8.590106255551336e-31</v>
+        <v>8.602025417736615e-31</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>8.645850614262847e-31</v>
+        <v>8.65911289368472e-31</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>8.708711095138143e-31</v>
+        <v>8.723344483945371e-31</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>8.778974922943295e-31</v>
+        <v>8.794989582628351e-31</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>8.856929322444356e-31</v>
+        <v>8.874317583843425e-31</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>8.942861518407574e-31</v>
+        <v>8.961597881700567e-31</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>9.037058735599011e-31</v>
+        <v>9.057099870309544e-31</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>9.139808198784684e-31</v>
+        <v>9.161092943780093e-31</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>9.251397132730895e-31</v>
+        <v>9.273846496222231e-31</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>9.372112762203678e-31</v>
+        <v>9.395629921745711e-31</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>9.502242311969029e-31</v>
+        <v>9.52671261446024e-31</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>9.642073006793304e-31</v>
+        <v>9.667363968475891e-31</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>9.791892071442361e-31</v>
+        <v>9.817853377902241e-31</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>9.9519867306826e-31</v>
+        <v>9.9784502368494e-31</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.01229717017951e-30</v>
+        <v>1.014975588676415e-30</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.030700912240649e-30</v>
+        <v>1.033394013872036e-30</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.050671772936381e-30</v>
+        <v>1.053363561404969e-30</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.072471632569516e-30</v>
+        <v>1.075147500116509e-30</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.096362371442788e-30</v>
+        <v>1.099009098847875e-30</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.122605869859015e-30</v>
+        <v>1.125211626440369e-30</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.151464008120951e-30</v>
+        <v>1.15401835173523e-30</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.183198666531339e-30</v>
+        <v>1.185692543573686e-30</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.218071725393012e-30</v>
+        <v>1.220497470797056e-30</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.256345065008716e-30</v>
+        <v>1.258696402246569e-30</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.298280565681187e-30</v>
+        <v>1.300552606763448e-30</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.34410513202829e-30</v>
+        <v>1.34629431505689e-30</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.393420918149898e-30</v>
+        <v>1.395523891860628e-30</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.445291350476919e-30</v>
+        <v>1.447304012370987e-30</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.498762202772806e-30</v>
+        <v>1.500679667598977e-30</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.552879248800826e-30</v>
+        <v>1.554695848555422e-30</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.606688262324439e-30</v>
+        <v>1.608397546251335e-30</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>1.659235017106956e-30</v>
+        <v>1.660829751697587e-30</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.709565286911693e-30</v>
+        <v>1.711037455905048e-30</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.756724845502102e-30</v>
+        <v>1.758065649884729e-30</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.799759466641499e-30</v>
+        <v>1.800959324647498e-30</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.837714924093211e-30</v>
+        <v>1.838763471204243e-30</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.869636991620668e-30</v>
+        <v>1.870523080565947e-30</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>1.894571442987193e-30</v>
+        <v>1.895283143743493e-30</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>1.911564051956137e-30</v>
+        <v>1.912088651747785e-30</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>1.919660592290891e-30</v>
+        <v>1.919984595589771e-30</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>1.918428599677058e-30</v>
+        <v>1.918539476789518e-30</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>1.909842825088331e-30</v>
+        <v>1.909737079484274e-30</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>1.896571775807472e-30</v>
+        <v>1.896257269114083e-30</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>1.881284023873845e-30</v>
+        <v>1.880779976092618e-30</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>1.866648141326775e-30</v>
+        <v>1.865985130833507e-30</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>1.855332700205628e-30</v>
+        <v>1.854552663750421e-30</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>1.850006272549759e-30</v>
+        <v>1.849162505257019e-30</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>1.853337430398508e-30</v>
+        <v>1.852494585766949e-30</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.867992012340886e-30</v>
+        <v>1.867226086530823e-30</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>1.895789102697861e-30</v>
+        <v>1.895182567130899e-30</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.936506542258692e-30</v>
+        <v>1.936136609930894e-30</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.989620768799449e-30</v>
+        <v>1.989557661725417e-30</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>2.054608220096162e-30</v>
+        <v>2.054915169309028e-30</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>2.130945333925038e-30</v>
+        <v>2.131678579476475e-30</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>2.218108548062116e-30</v>
+        <v>2.219317339022331e-30</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>2.315574300283396e-30</v>
+        <v>2.317300894741134e-30</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>2.422819028365144e-30</v>
+        <v>2.425098693427685e-30</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>2.539208957753386e-30</v>
+        <v>2.542068773128806e-30</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>2.662765443700997e-30</v>
+        <v>2.666209702364694e-30</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>2.790610970223378e-30</v>
+        <v>2.794611420657796e-30</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>2.919851573271818e-30</v>
+        <v>2.924347240913329e-30</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>3.047593288797955e-30</v>
+        <v>3.052490476036856e-30</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>3.170942152753081e-30</v>
+        <v>3.176114438933595e-30</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>3.287004201088499e-30</v>
+        <v>3.292292442508776e-30</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>3.392885469755825e-30</v>
+        <v>3.398097799667942e-30</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>3.485691994706359e-30</v>
+        <v>3.490603823316315e-30</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>3.562598119692289e-30</v>
+        <v>3.566957885488894e-30</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>3.621750631400241e-30</v>
+        <v>3.625361678174483e-30</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>3.662020300237519e-30</v>
+        <v>3.664801834519821e-30</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>3.682295152608489e-30</v>
+        <v>3.684283696576158e-30</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>3.681463214917396e-30</v>
+        <v>3.682812606394631e-30</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>3.65841251356856e-30</v>
+        <v>3.659393906026445e-30</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>3.612031501115829e-30</v>
+        <v>3.613033320714776e-30</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>3.541900059582981e-30</v>
+        <v>3.543358306351541e-30</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>3.449695546255232e-30</v>
+        <v>3.45188236030032e-30</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>3.33749155223199e-30</v>
+        <v>3.340475271805561e-30</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>3.207361668673159e-30</v>
+        <v>3.211006830188219e-30</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>3.061542911667395e-30</v>
+        <v>3.06555366817941e-30</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>2.902911986370969e-30</v>
+        <v>2.907002059176628e-30</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>2.734502092299115e-30</v>
+        <v>2.738436348114586e-30</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>2.55934642896648e-30</v>
+        <v>2.562940879927407e-30</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>2.380478195888161e-30</v>
+        <v>2.383599999549671e-30</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>2.200930592579113e-30</v>
+        <v>2.20349805191581e-30</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>2.023736818554444e-30</v>
+        <v>2.02571938196041e-30</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.851930073328786e-30</v>
+        <v>1.853348334617582e-30</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>1.688543556417395e-30</v>
+        <v>1.68946925482206e-30</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>1.536214302177727e-30</v>
+        <v>1.536762688734536e-30</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.395298183800806e-30</v>
+        <v>1.395584066173951e-30</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.265336256111671e-30</v>
+        <v>1.265458298043625e-30</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.145868557010194e-30</v>
+        <v>1.145909258726823e-30</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.036435124396606e-30</v>
+        <v>1.036460822607162e-30</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>9.365759961710983e-31</v>
+        <v>9.366368640682252e-31</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>8.458312102335993e-31</v>
+        <v>8.45961257493329e-31</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>7.637408044843101e-31</v>
+        <v>7.63957877266065e-31</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>6.898449731486765e-31</v>
+        <v>6.901508133065807e-31</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>6.236990675942647e-31</v>
+        <v>6.240850537467835e-31</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>5.648860449600499e-31</v>
+        <v>5.653436487258245e-31</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>5.129917925994901e-31</v>
+        <v>5.135136884745383e-31</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>4.676021978662046e-31</v>
+        <v>4.681822632239214e-31</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>4.283031481137895e-31</v>
+        <v>4.289364632049469e-31</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>3.946805306957372e-31</v>
+        <v>3.953633786484848e-31</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>3.663202329656496e-31</v>
+        <v>3.670500997855131e-31</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>3.428081422771087e-31</v>
+        <v>3.435837168469914e-31</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>3.23722726694338e-31</v>
+        <v>3.245437376912855e-31</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>3.084665380444761e-31</v>
+        <v>3.093298871287484e-31</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>2.96263231868187e-31</v>
+        <v>2.971590613679315e-31</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>2.863284483542199e-31</v>
+        <v>2.872399650801984e-31</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>2.778778276913646e-31</v>
+        <v>2.787813029369533e-31</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>2.701270100683767e-31</v>
+        <v>2.709917796095664e-31</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>2.622916356740349e-31</v>
+        <v>2.63080099769431e-31</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>2.53587344697118e-31</v>
+        <v>2.542549680879404e-31</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>2.432297773263815e-31</v>
+        <v>2.437250892364643e-31</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>2.308940816476435e-31</v>
+        <v>2.311719805943749e-31</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>2.182401169470092e-31</v>
+        <v>2.183193370165784e-31</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>2.074634700045434e-31</v>
+        <v>2.074420925614631e-31</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>2.007198487474812e-31</v>
+        <v>2.007731727382103e-31</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>1.975903593363909e-31</v>
+        <v>1.978334199853905e-31</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>1.941879406920604e-31</v>
+        <v>1.944947732447941e-31</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>1.902935720220417e-31</v>
+        <v>1.905216220622638e-31</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>1.872773620026493e-31</v>
+        <v>1.873635878198657e-31</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>1.865132618333127e-31</v>
+        <v>1.864743667987932e-31</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>1.893074877537161e-31</v>
+        <v>1.892372243799847e-31</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>1.954013273373422e-31</v>
+        <v>1.95408211058464e-31</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>2.029672269633481e-31</v>
+        <v>2.03112094191448e-31</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>2.101091155439679e-31</v>
+        <v>2.104023965839071e-31</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>2.149309219914595e-31</v>
+        <v>2.153326410408357e-31</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>2.155375891198217e-31</v>
+        <v>2.159573891935892e-31</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>2.110878402951157e-31</v>
+        <v>2.114108881810243e-31</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>2.037869328623949e-31</v>
+        <v>2.039488116845451e-31</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.963874596269298e-31</v>
+        <v>1.963876239248979e-31</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.915205784672186e-31</v>
+        <v>1.914198272409101e-31</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>1.895390815740051e-31</v>
+        <v>1.894121474764757e-31</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>1.887712098992075e-31</v>
+        <v>1.886646300872802e-31</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>1.874747544495108e-31</v>
+        <v>1.874054045817252e-31</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>1.842549534813183e-31</v>
+        <v>1.842159222051733e-31</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>1.791878530574448e-31</v>
+        <v>1.791733097891852e-31</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>1.727386228547127e-31</v>
+        <v>1.727503969124445e-31</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.653724350269149e-31</v>
+        <v>1.654200156724834e-31</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>1.57554461727847e-31</v>
+        <v>1.576549981668381e-31</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.497498525479574e-31</v>
+        <v>1.499281521902812e-31</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>1.42342855337975e-31</v>
+        <v>1.426251470524911e-31</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>1.354550404281716e-31</v>
+        <v>1.358487246343897e-31</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>1.2915475902523e-31</v>
+        <v>1.296443050111689e-31</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>1.235103623358517e-31</v>
+        <v>1.240573082580396e-31</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>1.18590201566736e-31</v>
+        <v>1.191331544502101e-31</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>1.144626279245691e-31</v>
+        <v>1.149172636628757e-31</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.111959886139775e-31</v>
+        <v>1.1145505340021e-31</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.086720254986009e-31</v>
+        <v>1.086720406210603e-31</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>1.063403550547098e-31</v>
+        <v>1.062083470161325e-31</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>1.041326324590949e-31</v>
+        <v>1.039942728992993e-31</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>1.020790285160963e-31</v>
+        <v>1.020204058935344e-31</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>1.002097140300488e-31</v>
+        <v>1.002773336218063e-31</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>9.855485980529406e-32</v>
+        <v>9.875564370709021e-32</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>9.71359844422316e-32</v>
+        <v>9.744329591569253e-32</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>9.593358466503294e-32</v>
+        <v>9.631579080566041e-32</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>9.49160120548809e-32</v>
+        <v>9.534494019918107e-32</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>9.405161632855762e-32</v>
+        <v>9.450255535218208e-32</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>9.330874720284804e-32</v>
+        <v>9.376044752059378e-32</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>9.265575439453667e-32</v>
+        <v>9.309042796034605e-32</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>9.206098762040634e-32</v>
+        <v>9.246430792736708e-32</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>9.149279659724162e-32</v>
+        <v>9.185389867758688e-32</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>9.091953104182706e-32</v>
+        <v>9.123101146693537e-32</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>9.030954067094553e-32</v>
+        <v>9.056745755134079e-32</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>8.963117520138223e-32</v>
+        <v>8.983504818673377e-32</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>8.885285008648311e-32</v>
+        <v>8.900565482539895e-32</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>8.795561281736358e-32</v>
+        <v>8.806271634287209e-32</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>8.694807961917828e-32</v>
+        <v>8.701491688555848e-32</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>8.584250345641339e-32</v>
+        <v>8.587427083872614e-32</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>8.465113729355772e-32</v>
+        <v>8.465279258764601e-32</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>8.338623409510052e-32</v>
+        <v>8.336249651758931e-32</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>8.206004682552745e-32</v>
+        <v>8.201539701382364e-32</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>8.068482844932765e-32</v>
+        <v>8.062350846162018e-32</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>7.927283193099041e-32</v>
+        <v>7.919884524625019e-32</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>7.783631023500119e-32</v>
+        <v>7.775342175298114e-32</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>7.638751632585058e-32</v>
+        <v>7.629925236708559e-32</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>7.493870316802392e-32</v>
+        <v>7.48483514738309e-32</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>7.350212372601056e-32</v>
+        <v>7.34127334584884e-32</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>7.209003096429976e-32</v>
+        <v>7.200441270632934e-32</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>7.071467784737692e-32</v>
+        <v>7.063540360262113e-32</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>6.93883173397314e-32</v>
+        <v>6.931772053263511e-32</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>6.812320240585227e-32</v>
+        <v>6.806337788164233e-32</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>6.693158601022531e-32</v>
+        <v>6.688439003491058e-32</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>6.582572111733962e-32</v>
+        <v>6.579277137771095e-32</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>6.481616187872768e-32</v>
+        <v>6.479877220439263e-32</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>6.390562680906255e-32</v>
+        <v>6.390450608312966e-32</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>6.309457678807089e-32</v>
+        <v>6.310974219609483e-32</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>6.238347248584805e-32</v>
+        <v>6.241424950777462e-32</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>6.177277457249165e-32</v>
+        <v>6.181779698265766e-32</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>6.12629437180985e-32</v>
+        <v>6.132015358523185e-32</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>6.085444059276572e-32</v>
+        <v>6.09210882799854e-32</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>6.054772586658942e-32</v>
+        <v>6.062037003140546e-32</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>6.034326020966694e-32</v>
+        <v>6.041776780398045e-32</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>6.024150429209474e-32</v>
+        <v>6.031305056219792e-32</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>6.024291878396987e-32</v>
+        <v>6.030598727054598e-32</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>6.034796435538903e-32</v>
+        <v>6.039634689351237e-32</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>6.055710167644918e-32</v>
+        <v>6.058389839558517e-32</v>
       </c>
     </row>
   </sheetData>
